--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1664083.34990902</v>
+        <v>1662195.768392618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800627</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>74.7151540747205</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.48793456562291</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.332975795529264</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>157.1826414337801</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.51862566593962</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>230.6815503270455</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481158</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229325</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>101.7806877295494</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>205.37432618516</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.562624396424411</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>228.7190817765712</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>149.4433890341033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901476</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>158.3284267422284</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.93408156253819</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664969</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>6.348656829617719</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.8736401074728</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896939</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052047</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.8175117958967</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.59669811656507</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896938</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385084</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>77.92206006422751</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.20569823125386</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014433</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898725</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857287</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224542</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898725</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224542</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2566.650548947988</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.888763586079</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1981.825876242509</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.057220972395</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1255.591462711315</v>
+        <v>1196.18634261119</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.4521307355029</v>
+        <v>806.0470106353782</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.1209694936838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>507.1847865657769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>507.1847865657769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2695.802650820718</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2695.802650820718</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2695.802650820718</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2695.802650820718</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2695.802650820718</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2695.802650820718</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>1620.080703211963</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1251.118186271551</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1251.118186271551</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>865.3299336733071</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>858.3844329241036</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>440.4206248222905</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733135</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791255</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548718</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834951</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473043</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>1993.546461473043</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1993.546461473043</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1620.080703211963</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362311</v>
+        <v>1620.080703211963</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615931</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572652</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326647</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047578</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="D10" t="n">
-        <v>156.7517573047578</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866328</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942411</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942411</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942411</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>261.391796148809</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>261.391796148809</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>261.391796148809</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629044</v>
+        <v>53.9429818203645</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>474.8900731662879</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1088.787142923177</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5197,22 +5197,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1267.886895026012</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1013.202406820125</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>723.7852367831647</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>723.7852367831647</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
         <v>2123.441607278215</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.2236783705318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>394.2236783705318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1347.963352341637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1347.963352341637</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>1093.27886413575</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>803.8616940987889</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="X16" t="n">
-        <v>575.8721432007716</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>575.8721432007716</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1338.988566777874</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1049.859927991432</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V19" t="n">
-        <v>795.175439785545</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W19" t="n">
-        <v>505.7582697485844</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X19" t="n">
-        <v>505.7582697485844</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.7582697485844</v>
+        <v>130.9054447954963</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.6725486937869</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>155.73636576588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>155.73636576588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>155.73636576588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>155.73636576588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>155.73636576588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>955.103143565574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>955.103143565574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675566</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.3210135240265</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.589933001382</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="C25" t="n">
-        <v>385.589933001382</v>
+        <v>103.6298761366674</v>
       </c>
       <c r="D25" t="n">
-        <v>235.4732935890462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>235.4732935890462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>235.4732935890462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035279</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247848</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383426</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383426</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W25" t="n">
-        <v>385.589933001382</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="X25" t="n">
-        <v>385.589933001382</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.589933001382</v>
+        <v>454.214523894814</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823793</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643328</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899132</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207835</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014299</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126486</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571618</v>
+        <v>549.5984374701566</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636265</v>
+        <v>796.3635653766208</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1103.683698656583</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1908.095276920734</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>2187.635342139431</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921641</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.153274388193</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799372</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471201</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974668</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557904</v>
       </c>
       <c r="R28" t="n">
-        <v>1461.949908824</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1262.029898739552</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1038.244483529058</v>
+        <v>964.1357418247875</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529058</v>
+        <v>964.1357418247875</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231711</v>
+        <v>709.4512536189006</v>
       </c>
       <c r="W28" t="n">
-        <v>494.1428252862104</v>
+        <v>709.4512536189006</v>
       </c>
       <c r="X28" t="n">
-        <v>266.153274388193</v>
+        <v>481.4617027208833</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.153274388193</v>
+        <v>260.6691235773532</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823793</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643328</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899132</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207835</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014299</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.56127523127</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126486</v>
+        <v>229.0333923118331</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571618</v>
+        <v>378.1030765138931</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636265</v>
+        <v>624.8682044203574</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643589</v>
+        <v>932.1883377003193</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307622</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.91651652632</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542181</v>
+        <v>439.5324299542177</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076817</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6479607276539</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276539</v>
+        <v>139.849109875694</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276539</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028597</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030871</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899126</v>
@@ -6762,37 +6762,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126485</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571617</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.71878111552</v>
+        <v>745.6707680030227</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395483</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059516</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278214</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108344</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229686</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649698</v>
@@ -6874,34 +6874,34 @@
         <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862499</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045223</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010332</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6999,43 +6999,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126485</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571617</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636264</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643589</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307622</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180914</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083207</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7549,16 +7549,16 @@
         <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,19 +7567,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7612,7 +7612,7 @@
         <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>359.9065542451744</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>62.9112074258384</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16935584025424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.65987261462584</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>22.04402060665547</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208014</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>134.497745353509</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968301971</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776703</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928253</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776705</v>
+        <v>213.2603911806614</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>277.6717966208017</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>76.4319698833857</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.51827062200618</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>72.10417202428607</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>14.45548819888958</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.480510380079</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>63.21913431616088</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>90.97974680499793</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>192.3581855871783</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>142.2668161885946</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>29.6199283559049</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>18.01446838604055</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.36765428722768</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.49015632542796</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>48.01209316312041</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-9.399148254162333e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>949948.7918249848</v>
+        <v>949948.7918249847</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185696</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852502</v>
-      </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143235</v>
+        <v>488186.5648143233</v>
       </c>
       <c r="L2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="O2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="P2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492625.0619185703</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.500207518911338e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925945</v>
+        <v>176423.2191925935</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284558</v>
       </c>
     </row>
     <row r="4">
@@ -26421,16 +26421,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512224</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,25 +26439,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143881</v>
+        <v>15045.66962143898</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563527</v>
+        <v>33210.29213563549</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275951</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275951</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340951</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871675</v>
+        <v>91987.32594871669</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022291</v>
+        <v>96628.20853022284</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26522,40 +26522,40 @@
         <v>-336976.8536106066</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039379</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039375</v>
+        <v>252991.025603937</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618012</v>
+        <v>-163055.6194877727</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150945</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150948</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150943</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150949</v>
+        <v>362104.4169891223</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225003</v>
+        <v>185681.1977965289</v>
       </c>
       <c r="K6" t="n">
-        <v>314185.4588456197</v>
+        <v>314166.9651076851</v>
       </c>
       <c r="L6" t="n">
-        <v>347102.5924349183</v>
+        <v>347102.5924349182</v>
       </c>
       <c r="M6" t="n">
-        <v>222644.4840019482</v>
+        <v>222644.4840019486</v>
       </c>
       <c r="N6" t="n">
-        <v>357445.499235786</v>
+        <v>357445.4992357852</v>
       </c>
       <c r="O6" t="n">
         <v>357445.4992357852</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,40 +26738,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541009</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541017</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545563</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108369</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370129</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-4.728532299032504e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545572</v>
+        <v>674.2872727545563</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>141.7331662829373</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.3440456163144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.3581181989826</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.14542677928243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.0552972222735</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>20.33532920387802</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.215215997541</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>93.24122243731162</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>44.65327491701979</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>20.33532920387711</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.996980689815246e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.45172804070171e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340048</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141002</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554475</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630673</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338308</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.3907153663381</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727387</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473562</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188925</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890693</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649104</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.416982047801</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983125</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.315665592305</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.152864647958</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639067</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.27496629637267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.0534542921061916</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407862</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.05628366564445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813584</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302249</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175856</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678016</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701168</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197228</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435305</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.017335757707</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.82557620313</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355114</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245901</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137343</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713964</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>213.4866460137776</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>294.2627707717789</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557339</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>355.2385940046684</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504666</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>812.5369477415668</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523267</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>222.5107781385833</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686883</v>
+        <v>10.73738595686872</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299108</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799288</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206031</v>
       </c>
       <c r="P28" t="n">
-        <v>178.383600611801</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>133.1477786379265</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091955</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221095</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502054</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005183</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336954</v>
+        <v>462.518096136686</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504671</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315253</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952063</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595515</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086134</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502438</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414417</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015155</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.257704956025</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>560.0354988619106</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315253</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952063</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595515</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086134</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502438</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414417</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>409.6265432813985</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>277.0152755513209</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
